--- a/ModifSolicDario.xlsx
+++ b/ModifSolicDario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\fleetdeliveryapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7519473E-4B9E-4AAD-90F8-C382DF946B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB2B3CF-ACC0-4541-9AF7-F0FEE0D8CBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{56EC9BEE-6846-420C-8D60-535E9C8BDBF9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="76">
   <si>
     <t>FILTROS</t>
   </si>
@@ -276,20 +276,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Tabla para agregar o quitar dni en visualización en orden. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>No sé de que se trata esto</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">clientes en un rango de meses) </t>
     </r>
     <r>
@@ -301,13 +287,55 @@
       </rPr>
       <t>Aclarar</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>El 45 es el Codigo de Cierre. Usar Mes de Fecha Asignada</t>
+  </si>
+  <si>
+    <t>Por ahora queda como esta (SI-NO y Parcial)</t>
+  </si>
+  <si>
+    <t>LO SACO</t>
+  </si>
+  <si>
+    <t>LO DEJO</t>
+  </si>
+  <si>
+    <t>El que tiene al entrar</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tabla para agregar o quitar dni en visualización en orden. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>YA ESTA</t>
+    </r>
+  </si>
+  <si>
+    <t>Esto sería una tercer pestaña que Darío va a pedir que quiere que haya ahí</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,6 +404,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -519,7 +562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -561,6 +604,16 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,8 +622,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFFF7C80"/>
-      <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -884,7 +937,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -921,21 +974,23 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="28" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+      <c r="A5" s="26" t="s">
+        <v>69</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -946,7 +1001,7 @@
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="28" t="s">
         <v>13</v>
       </c>
     </row>
@@ -957,7 +1012,7 @@
       <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="28" t="s">
         <v>14</v>
       </c>
     </row>
@@ -968,7 +1023,7 @@
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="28" t="s">
         <v>15</v>
       </c>
     </row>
@@ -980,6 +1035,9 @@
       <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="F9" s="25" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -1007,6 +1065,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
+        <v>70</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1052,7 +1113,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>28</v>
@@ -1071,6 +1132,9 @@
       <c r="C19" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="D19" s="25" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -1079,6 +1143,9 @@
       <c r="C20" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="D20" s="25" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
@@ -1086,7 +1153,9 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
+      <c r="A22" s="26" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D23" s="6"/>

--- a/ModifSolicDario.xlsx
+++ b/ModifSolicDario.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\fleetdeliveryapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB2B3CF-ACC0-4541-9AF7-F0FEE0D8CBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4F8AE4-F051-4AA5-80D6-55C092AE666F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{56EC9BEE-6846-420C-8D60-535E9C8BDBF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="80">
   <si>
     <t>FILTROS</t>
   </si>
@@ -329,6 +330,18 @@
   </si>
   <si>
     <t>Esto sería una tercer pestaña que Darío va a pedir que quiere que haya ahí</t>
+  </si>
+  <si>
+    <t>SELECT IDREGISTRO, UserID, PROYECTOMODULO, CLIENTE, NOMBRE, FechaAsignada, CodigoCierre, RECUPIDJOBCARD</t>
+  </si>
+  <si>
+    <t>FROM     AsignacionesOTs</t>
+  </si>
+  <si>
+    <t>WHERE  (UserID = '29') AND (PROYECTOMODULO = 'Tasa')</t>
+  </si>
+  <si>
+    <t>ORDER BY NOMBRE</t>
   </si>
 </sst>
 </file>
@@ -1377,4 +1390,39 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4466197-6BC2-46F2-AA9B-5460124D002B}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>